--- a/开发问题记录.xlsx
+++ b/开发问题记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>支不支持指定ip创建虚拟机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,13 +35,77 @@
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机很卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络问题，猜测是VPN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume新增成功，但返回体是{"volumeId":"Recource is creating","xmlns":"http://ec2.hwclouds.com/doc/2013-02-01/","requestId":"4cadb6d0-4eb5-40fe-9c07-a910df9b24d1"}，无法获取volumeId，volume资源无法使用，会导致上层失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未明确，可能是正在创建的资源太多导致的，华为云的测试环境比较慢
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"volumeSet":{"volumeSet":[]},"xmlns":"http://ec2.hwclouds.com/doc/2013-02-01/","requestId":"06953fc4-58ba-4c71-83bc-da08d88b2f72"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于该类返回值，由于无法获取volumeId，
+认定创建失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于返回为空，按照该volume不存在处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume新增成功，立刻查询volume状态返回的volumeSet为空数组
+http://ec2.hwclouds.com/doc/2013-02-01/","requestId":"65f68303-9304-4136-9569-31771bb96909</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决，暂时写死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crate volume时AvailabilityZone如何获取？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">因为华为云底层创建比较慢，华为云等待30秒就返回，如果超过30秒华为云底层还没返回，就返回Resource is creating
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +117,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -77,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -87,6 +158,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -106,7 +183,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -148,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,62 +469,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
     </row>
   </sheetData>

--- a/开发问题记录.xlsx
+++ b/开发问题记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>支不支持指定ip创建虚拟机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,22 @@
     <t xml:space="preserve">因为华为云底层创建比较慢，华为云等待30秒就返回，如果超过30秒华为云底层还没返回，就返回Resource is creating
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuxiyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yingjun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangpeng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -183,7 +199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -225,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,110 +485,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="38.625" customWidth="1"/>
+    <col min="1" max="2" width="56" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
+    <col min="5" max="5" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>